--- a/mageproductcsv/resources/bra-electric-shaver.xlsx
+++ b/mageproductcsv/resources/bra-electric-shaver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="-320" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="229">
   <si>
     <t>BRA剃须刀</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗799CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗799CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -46,10 +42,6 @@
   </si>
   <si>
     <t>智能声波科技；5种个性化剃须模式；专利ActiveLift™技术；OptiFoil™网膜；高度灵活剃须系统；可全身水洗；全自动清洁充电™（Clean &amp; Renew™）系统；LED显示器；只需1小时即可满充。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/imgextra/i2/53093906/TB2epT4apXXXXbjXpXXXXXXXXXX-53093906.jpg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -65,10 +57,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗350CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗350CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -82,10 +70,6 @@
   </si>
   <si>
     <t>三级剃须系统；三刀一体自由浮动式系统；超感几何刀网；全自动清洁中心。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/imgextra/i4/2566346800/TB2lLoZiFXXXXaAXpXXXXXXXXXX_!!2566346800.jpg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -107,10 +91,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗7-740S剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗7-740S剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -127,10 +107,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i3/80744637/TB2sf0lkXXXXXaJXXXXXXXXXXXX_!!80744637.jpg，https://img.alicdn.com/imgextra/i4/80744637/TB2XPtrkXXXXXahXXXXXXXXXXXX_!!80744637.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/80744637/TB2prIJjVXXXXcxXpXXXXXXXXXX_!!80744637.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/80744637/TB2bpdpkXXXXXanXXXXXXXXXXXX_!!80744637.jpg' /&gt;</t>
   </si>
   <si>
@@ -138,10 +114,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗7-765CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗7-765CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -158,10 +130,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i2/2583825753/TB2CDDmgXXXXXXfXXXXXXXXXXXX_!!2583825753.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/371987070/TB2BhMLdpXXXXXmXXXXXXXXXXXX_!!371987070.jpg' /&gt;</t>
   </si>
   <si>
@@ -169,10 +137,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗CT2S剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗CT2S剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -189,17 +153,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i4/133047204/TB2TTwzcXXXXXcSXXXXXXXXXXXX_!!133047204.jpg，https://img.alicdn.com/imgextra/i2/2379720333/TB2HMsHlpXXXXXaXpXXXXXXXXXX_!!2379720333.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/2379720333/TB2UOMklpXXXXcNXpXXXXXXXXXX_!!2379720333.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/2379720333/TB2Y0.MlpXXXXcnXXXXXXXXXXXX_!!2379720333.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/2379720333/TB2phEnlpXXXXcjXpXXXXXXXXXX_!!2379720333.jpg' /&gt;</t>
   </si>
   <si>
-    <t>BRA博朗CT2S（白色）剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗CT2S（白色）剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -209,10 +165,6 @@
   </si>
   <si>
     <t>欢迎前来「德藝緻」德國精品百貨，BRA博朗CT2S（白色）剃须刀,想了解更多BRA博朗CT2S（白色）剃须刀，请进入「德藝緻」德國精品百貨，任您选购。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/imgextra/i2/749240762/TB26RwwkpXXXXbiXpXXXXXXXXXX-749240762.jpg</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -227,10 +179,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗WF2S剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗WF2S剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -247,10 +195,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i1/444969165/TB2H6imkFXXXXbfXXXXXXXXXXXX_!!444969165.jpg，https://img.alicdn.com/imgextra/i4/444969165/TB2eoxWkFXXXXa9XpXXXXXXXXXX_!!444969165.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/444969165/TB2HI5lkFXXXXbjXXXXXXXXXXXX_!!444969165.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/444969165/TB28q1bkFXXXXcKXXXXXXXXXXXX_!!444969165.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/444969165/TB2bruakFXXXXcNXXXXXXXXXXXX_!!444969165.jpg' /&gt;</t>
   </si>
   <si>
@@ -258,10 +202,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗9090CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗9090CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -278,10 +218,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i2/749240762/TB2OmAQkpXXXXbUXXXXXXXXXXXX-749240762.jpg，https://img.alicdn.com/imgextra/i3/749240762/TB2lDQMkpXXXXciXXXXXXXXXXXX-749240762.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1947949511/TB2yfWbhpXXXXcaXXXXXXXXXXXX_!!1947949511.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/749240762/TB2Dv.GkpXXXXXKXpXXXXXXXXXX-749240762.jpg' /&gt;</t>
   </si>
   <si>
@@ -289,10 +225,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗9050CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗9050CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -305,10 +237,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i1/749240762/TB23YEukpXXXXbKXpXXXXXXXXXX-749240762.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/749240762/TB2tegzkpXXXXbcXpXXXXXXXXXX-749240762.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/749240762/TB29wQ8kpXXXXXjXXXXXXXXXXXX-749240762.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/749240762/TB2MfwwkpXXXXbGXpXXXXXXXXXX-749240762.jpg' /&gt;</t>
   </si>
   <si>
@@ -316,10 +244,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗5050CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗5050CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -336,10 +260,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i2/749240762/TB2Hky_ipXXXXb2XpXXXXXXXXXX-749240762.gif</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/749240762/TB2Y0TzipXXXXaHXXXXXXXXXXXX-749240762.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/749240762/TB2m0fpipXXXXctXXXXXXXXXXXX-749240762.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/749240762/TB2TKTfipXXXXaMXpXXXXXXXXXX-749240762.jpg' /&gt;</t>
   </si>
   <si>
@@ -347,10 +267,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗9030S剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗9030S剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -363,10 +279,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i2/749240762/TB2TtUUkpXXXXaYXXXXXXXXXXXX-749240762.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/749240762/TB2Dv.GkpXXXXXKXpXXXXXXXXXX-749240762.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/749240762/TB21gZQkpXXXXbLXXXXXXXXXXXX-749240762.jpg' /&gt;</t>
   </si>
   <si>
@@ -374,10 +286,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗3050CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗3050CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -394,10 +302,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i3/583385556/TB27gtKlpXXXXcgXXXXXXXXXXXX_!!583385556.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/583385556/TB2lZRmlpXXXXb2XpXXXXXXXXXX_!!583385556.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/583385556/TB2NbXZlpXXXXX7XXXXXXXXXXXX_!!583385556.jpg' /&gt;</t>
   </si>
   <si>
@@ -405,10 +309,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗M90剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗M90剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -425,10 +325,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i4/24157440/TB2qFMHbFXXXXXtXpXXXXXXXXXX_!!24157440.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/24157440/TB2mwkAbFXXXXaTXpXXXXXXXXXX_!!24157440.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/749240762/TB2KUMpkpXXXXbKXpXXXXXXXXXX-749240762.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/749240762/TB2KUMpkpXXXXbKXpXXXXXXXXXX-749240762.jpg' /&gt;</t>
   </si>
   <si>
@@ -436,10 +332,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗370CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗370CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -456,10 +348,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i1/2361611173/TB2x_.7lXXXXXbrXpXXXXXXXXXX_!!2361611173.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/2361611173/TB24RNglpXXXXc8XXXXXXXXXXXX_!!2361611173.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/2361611173/TB21wdmlpXXXXcMXXXXXXXXXXXX_!!2361611173.jpg' /&gt;</t>
   </si>
   <si>
@@ -487,10 +375,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i3/1723222834/TB2Mde5aFXXXXXLXXXXXXXXXXXX-1723222834.jpg，https://img.alicdn.com/imgextra/i4/1723222834/TB2fTyTaFXXXXa.XpXXXXXXXXXX-1723222834.jpg，https://img.alicdn.com/imgextra/i2/1723222834/TB2ep5QaFXXXXb2XpXXXXXXXXXX-1723222834.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/2157901892/TB2ySNQbpXXXXXwXXXXXXXXXXXX_!!2157901892.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2157901892/TB2YvdMbpXXXXbLXXXXXXXXXXXX_!!2157901892.jpg' /&gt;</t>
   </si>
   <si>
@@ -498,10 +382,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗3020剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗341剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -518,10 +398,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i3/12701251/TB2A8Y1kpXXXXbHXpXXXXXXXXXX_!!12701251.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/1947949511/TB2_sRbiVXXXXbgXXXXXXXXXXXX_!!1947949511.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/1947949511/TB20ghciVXXXXa7XXXXXXXXXXXX_!!1947949511.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/1947949511/TB2P9M9iFXXXXcaXXXXXXXXXXXX_!!1947949511.jpg' /&gt; </t>
   </si>
   <si>
@@ -529,10 +405,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗3040S剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗3040S剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -549,10 +421,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i2/2379720333/TB2e5sJjVXXXXcPXXXXXXXXXXXX_!!2379720333.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2379720333/TB27Y3EjVXXXXXOXpXXXXXXXXXX_!!2379720333.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/2379720333/TB2UbEsjVXXXXbmXpXXXXXXXXXX_!!2379720333.gif' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2379720333/TB22ToUjVXXXXccXXXXXXXXXXXX_!!2379720333.gif' /&gt;</t>
   </si>
   <si>
@@ -560,10 +428,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗190剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗190剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -580,17 +444,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i4/1626645831/TB22C67kXXXXXbzXpXXXXXXXXXX_!!1626645831.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/1626645831/TB2086SkXXXXXXdXFXXXXXXXXXX_!!1626645831.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1626645831/TB2yi.HkXXXXXXgXXXXXXXXXXXX_!!1626645831.jpg' /&gt;</t>
   </si>
   <si>
-    <t>BRA博朗5090CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗5090CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -600,10 +456,6 @@
   </si>
   <si>
     <t>欢迎前来「德藝緻」德國精品百貨，BRA博朗5090CC剃须刀,想了解更多BRA博朗5090CC剃须刀，请进入「德藝緻」德國精品百貨，任您选购。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/imgextra/i4/444969165/TB2BhybkFXXXXcHXXXXXXXXXXXX_!!444969165.jpg，https://img.alicdn.com/imgextra/i2/444969165/T29D41XJRaXXXXXXXX_!!444969165.gif</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
@@ -640,10 +492,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗5030S剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗5030S剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -660,10 +508,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i3/749240762/TB2AU_FipXXXXXaXXXXXXXXXXXX-749240762.gif</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/749240762/TB2VwEQkpXXXXbVXXXXXXXXXXXX-749240762.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/749240762/TB24m.QkpXXXXa6XXXXXXXXXXXX-749240762.jpg' /&gt;</t>
   </si>
   <si>
@@ -671,10 +515,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗790CC剃须刀</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗790CC剃须刀-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -691,10 +531,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i4/13706421/TB2nOllhpXXXXctXpXXXXXXXXXX_!!13706421.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2635083319/TB2VANBgpXXXXcsXXXXXXXXXXXX_!!2635083319.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2635083319/TB2VANBgpXXXXcsXXXXXXXXXXXX_!!2635083319.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/2635083319/TB2RjNpgpXXXXbXXpXXXXXXXXXX_!!2635083319.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/2635083319/TB24E0vgpXXXXXvXpXXXXXXXXXX_!!2635083319.jpg' /&gt;</t>
   </si>
   <si>
@@ -722,24 +558,1220 @@
     <t>short_description</t>
   </si>
   <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9090CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃须刀</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5090CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃须刀</t>
+    </r>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-799CC.jpg</t>
+  </si>
+  <si>
     <t>img-cover</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>brand</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-350CC.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-7-740S.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-7-765cc.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-ct2S.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-ct2S-white.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-wf2S.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-9090cc.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-9050cc.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-5050cc.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-9030s.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-3050cc.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-m90.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-370CC.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-340.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-3020.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-3040s.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃须刀</t>
+    </r>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-190.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-5090cc.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-5070cc.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-5030s.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-shaver-790CC.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img /&gt;</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>url-key</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>799CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-799CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-799CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>350CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-350CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-350CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7-740S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-7-740S</t>
+  </si>
+  <si>
+    <t>braun-shaver-7-740S</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7-765CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-7-765CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-7-765CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CT2S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-CT2S</t>
+  </si>
+  <si>
+    <t>braun-shaver-CT2S</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CT2S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Tai Le"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>白色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft Tai Le"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-CT2S-white</t>
+  </si>
+  <si>
+    <t>braun-shaver-CT2S-white</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WF2S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-WF2S</t>
+  </si>
+  <si>
+    <t>braun-shaver-WF2S</t>
+  </si>
+  <si>
+    <t>zh-braun-shaver-9090CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-9090CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9050CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-9050CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-9050CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5050CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-5050CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-5050CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9030S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-9030S</t>
+  </si>
+  <si>
+    <t>braun-shaver-9030S</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3050CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-3050CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-3050CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M90</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-M90</t>
+  </si>
+  <si>
+    <t>braun-shaver-M90</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>370CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-370CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-370CC</t>
+  </si>
+  <si>
+    <t>zh-braun-shaver-340</t>
+  </si>
+  <si>
+    <t>braun-shaver-340</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-3020</t>
+  </si>
+  <si>
+    <t>braun-shaver-3020</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3040S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-3040S</t>
+  </si>
+  <si>
+    <t>braun-shaver-3040S</t>
+  </si>
+  <si>
+    <t>zh-braun-shaver-190</t>
+  </si>
+  <si>
+    <t>braun-shaver-190</t>
+  </si>
+  <si>
+    <t>zh-braun-shaver-5090CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-5090CC</t>
+  </si>
+  <si>
+    <t>zh-braun-shaver-5070CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-5070CC</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5030S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-5030S</t>
+  </si>
+  <si>
+    <t>braun-shaver-5030S</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>790CC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Lantinghei TC Demibold"/>
+        <family val="2"/>
+      </rPr>
+      <t>刀</t>
+    </r>
+  </si>
+  <si>
+    <t>zh-braun-shaver-790CC</t>
+  </si>
+  <si>
+    <t>braun-shaver-790CC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -750,9 +1782,36 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lantinghei TC Demibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft Tai Le"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -778,27 +1837,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="46">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1131,49 +2272,60 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1184,830 +2336,900 @@
         <v>519.99</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="18">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>150</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="18">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>399</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="18">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>399</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>145</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="18">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>149</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>146</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="18">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>149</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>147</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="18">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>148</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="18">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>758</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>149</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="18">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>835</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="18">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>349</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>151</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="18">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2">
         <v>685</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>152</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="18">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2">
         <v>180</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
+      </c>
+      <c r="I13" t="s">
+        <v>153</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="18">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2">
         <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>203</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>100</v>
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="18">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2">
         <v>238</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>108</v>
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C16" s="2">
         <v>179</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" ht="18">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2">
         <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>211</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>124</v>
+        <v>93</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" ht="18">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2">
         <v>218</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
+      </c>
+      <c r="I18" t="s">
+        <v>158</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" ht="18">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C19" s="2">
         <v>99</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>140</v>
+        <v>105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" ht="18">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2">
         <v>375</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>146</v>
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="C21" s="2">
         <v>318</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
+        <v>116</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="K21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" ht="18">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C22" s="2">
         <v>275</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="18">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2">
         <v>639</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I9" r:id="rId8"/>
-    <hyperlink ref="I10" r:id="rId9"/>
-    <hyperlink ref="I11" r:id="rId10"/>
-    <hyperlink ref="I12" r:id="rId11"/>
-    <hyperlink ref="I13" r:id="rId12"/>
-    <hyperlink ref="I14" r:id="rId13"/>
-    <hyperlink ref="I15" r:id="rId14"/>
-    <hyperlink ref="I16" display="https://img.alicdn.com/imgextra/i3/1723222834/TB2Mde5aFXXXXXLXXXXXXXXXXXX-1723222834.jpg，https://img.alicdn.com/imgextra/i4/1723222834/TB2fTyTaFXXXXa.XpXXXXXXXXXX-1723222834.jpg，https://img.alicdn.com/imgextra/i2/1723222834/TB2ep5QaFXXXXb2XpXXXXXXXXXX-172"/>
-    <hyperlink ref="I17" r:id="rId15"/>
-    <hyperlink ref="I18" r:id="rId16"/>
-    <hyperlink ref="I19" r:id="rId17"/>
-    <hyperlink ref="I20" r:id="rId18"/>
-    <hyperlink ref="I22" r:id="rId19"/>
-    <hyperlink ref="I23" r:id="rId20"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
